--- a/importPhieuNhap.xlsx
+++ b/importPhieuNhap.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a3a683147dce32a0/Máy tính/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads_D\Thuvien\Thuvien\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="11_AD4DA82427541F7ACA7EB82EA056C582683EDF13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{66C0E540-11D1-4582-ACD1-42941292E308}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BAAD59-95C1-4DCA-BD0C-148723DE0561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,7 +106,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -141,9 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -161,10 +172,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -433,7 +440,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,34 +458,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
